--- a/biology/Zoologie/Drongo_bronzé/Drongo_bronzé.xlsx
+++ b/biology/Zoologie/Drongo_bronzé/Drongo_bronzé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Drongo_bronz%C3%A9</t>
+          <t>Drongo_bronzé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicrurus aeneus
 Le Drongo bronzé (Dicrurus aeneus) est une espèce de passereaux de la famille des Dicruridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Drongo_bronz%C3%A9</t>
+          <t>Drongo_bronzé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 24 cm de longueur. Il a un plumage d'un vert-bleu métallique pailleté. Il a une grosse tête et une queue fourchue, un bec et des pattes noirs. Il a les pattes courtes et se tient très droit tandis qu'il est perché bien en vue, comme une pie-grièche. Le jeune a un plumage plus terne et plus brun avec moins de pailletis.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Drongo_bronz%C3%A9</t>
+          <t>Drongo_bronzé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est insectivore.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Drongo_bronz%C3%A9</t>
+          <t>Drongo_bronzé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond trois à quatre œufs dans un nid en coupe dans une fourchette haute d'un arbre.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Drongo_bronz%C3%A9</t>
+          <t>Drongo_bronzé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est agressif et n'a pas peur des autres espèces et attaque, malgré sa petite taille, des beaucoup plus grandes comme les oiseaux de proie si son nid ou ses jeunes sont menacés.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Drongo_bronz%C3%A9</t>
+          <t>Drongo_bronzé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce réside dans les régions tropicales du sud de l'Asie, de l'est de l'Inde au sud de la Chine et en Indonésie.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Drongo_bronz%C3%A9</t>
+          <t>Drongo_bronzé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente généralement les forêts feuillues humides.
 </t>
@@ -680,7 +704,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Drongo_bronz%C3%A9</t>
+          <t>Drongo_bronzé</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,7 +722,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Selon Peterson, cet oiseau est représenté par 3 sous-espèces :
 Dicrurus aeneus aeneus Vieillot 1817 ;
